--- a/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a75_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a75_ccg.xlsx
@@ -471,28 +471,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1155.6677614347686</v>
+        <v>-493.878976955939</v>
       </c>
       <c r="C2">
-        <v>8.061899782</v>
+        <v>19.05184134</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>652</v>
+        <v>2860</v>
       </c>
       <c r="H2">
-        <v>605</v>
+        <v>3025</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,28 +500,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1160.3422218637184</v>
+        <v>-493.77701315914567</v>
       </c>
       <c r="C3">
-        <v>0.135404641</v>
+        <v>3.739531877</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>652</v>
+        <v>1204</v>
       </c>
       <c r="H3">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,28 +529,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1165.4039138542048</v>
+        <v>-494.66977709988043</v>
       </c>
       <c r="C4">
-        <v>0.165638571</v>
+        <v>3.026279456</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>652</v>
+        <v>1756</v>
       </c>
       <c r="H4">
-        <v>605</v>
+        <v>1815</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,28 +558,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1182.6806093240584</v>
+        <v>-501.035321969408</v>
       </c>
       <c r="C5">
-        <v>0.123409212</v>
+        <v>23.881067754</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>652</v>
+        <v>3412</v>
       </c>
       <c r="H5">
-        <v>605</v>
+        <v>3630</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,28 +587,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1151.5913951159318</v>
+        <v>-489.92059686850763</v>
       </c>
       <c r="C6">
-        <v>0.148010036</v>
+        <v>8.260855456</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>652</v>
+        <v>2308</v>
       </c>
       <c r="H6">
-        <v>605</v>
+        <v>2420</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,28 +616,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1139.5270312436296</v>
+        <v>-485.414226853377</v>
       </c>
       <c r="C7">
-        <v>0.122337089</v>
+        <v>24.911606687</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>652</v>
+        <v>3412</v>
       </c>
       <c r="H7">
-        <v>605</v>
+        <v>3630</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,28 +645,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1140.4707892873744</v>
+        <v>-482.083576119485</v>
       </c>
       <c r="C8">
-        <v>0.130454752</v>
+        <v>10.167333725</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>652</v>
+        <v>2860</v>
       </c>
       <c r="H8">
-        <v>605</v>
+        <v>3025</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,28 +674,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1170.8393993377722</v>
+        <v>-494.21506369912964</v>
       </c>
       <c r="C9">
-        <v>0.131017989</v>
+        <v>10.617825346</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>652</v>
+        <v>1756</v>
       </c>
       <c r="H9">
-        <v>605</v>
+        <v>1815</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,28 +703,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1159.2599484385823</v>
+        <v>-490.832160405779</v>
       </c>
       <c r="C10">
-        <v>0.121718791</v>
+        <v>5.701377474</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>652</v>
+        <v>2860</v>
       </c>
       <c r="H10">
-        <v>605</v>
+        <v>3025</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,28 +732,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1144.5087727057708</v>
+        <v>-483.7629406050496</v>
       </c>
       <c r="C11">
-        <v>0.12796092</v>
+        <v>15.070507766</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>652</v>
+        <v>2308</v>
       </c>
       <c r="H11">
-        <v>605</v>
+        <v>2420</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.014596761349487305</v>
+        <v>0.04474358604663086</v>
       </c>
       <c r="E2">
-        <v>13.74391</v>
+        <v>96.20736</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,15 +808,83 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1159.2599484385823</v>
+        <v>-514.1312384342574</v>
       </c>
       <c r="C3">
-        <v>3.9227383944293784e-14</v>
+        <v>0.09846833595847691</v>
       </c>
       <c r="D3">
-        <v>0.04959464059399414</v>
+        <v>0.6333436789864502</v>
       </c>
       <c r="E3">
+        <v>4.82148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-502.73558385812566</v>
+      </c>
+      <c r="C4">
+        <v>0.09835940903250688</v>
+      </c>
+      <c r="D4">
+        <v>0.7539614791468506</v>
+      </c>
+      <c r="E4">
+        <v>3.11269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-497.1950978100338</v>
+      </c>
+      <c r="C5">
+        <v>0.09518464725073003</v>
+      </c>
+      <c r="D5">
+        <v>0.6677500575596924</v>
+      </c>
+      <c r="E5">
+        <v>2.89854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-494.0564914955021</v>
+      </c>
+      <c r="C6">
+        <v>0.07478995031762493</v>
+      </c>
+      <c r="D6">
+        <v>0.4520933031159668</v>
+      </c>
+      <c r="E6">
+        <v>3.41883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-490.832160405779</v>
+      </c>
+      <c r="C7">
+        <v>0.09882391755356783</v>
+      </c>
+      <c r="D7">
+        <v>2.7805939019765624</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -827,7 +895,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -861,10 +929,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0180694098894043</v>
+        <v>0.023136098326538086</v>
       </c>
       <c r="E2">
-        <v>14.06376</v>
+        <v>98.44632</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,15 +940,66 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1144.5087727057708</v>
+        <v>-485.1720103021373</v>
       </c>
       <c r="C3">
-        <v>5.959945809039208e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.05659631173620605</v>
+        <v>4.625150814048462</v>
       </c>
       <c r="E3">
+        <v>1.57628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-484.7683500092438</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>3.090924559673584</v>
+      </c>
+      <c r="E4">
+        <v>2.03725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-483.77283025733044</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>3.4945365776832276</v>
+      </c>
+      <c r="E5">
+        <v>0.07043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-483.7629406050496</v>
+      </c>
+      <c r="C6">
+        <v>0.002957135342410493</v>
+      </c>
+      <c r="D6">
+        <v>3.511548486279053</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -891,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -925,10 +1044,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.882702571607544</v>
+        <v>0.9842656738851319</v>
       </c>
       <c r="E2">
-        <v>14.15489</v>
+        <v>99.08423</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,15 +1055,83 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1155.6677614347686</v>
+        <v>-497.19599722570314</v>
       </c>
       <c r="C3">
-        <v>3.9349315267032554e-14</v>
+        <v>0.002372837849514934</v>
       </c>
       <c r="D3">
-        <v>0.059779243014282224</v>
+        <v>2.7959413687928465</v>
       </c>
       <c r="E3">
+        <v>2.1889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-495.4973934704484</v>
+      </c>
+      <c r="C4">
+        <v>0.04048844446523501</v>
+      </c>
+      <c r="D4">
+        <v>1.4066202609697265</v>
+      </c>
+      <c r="E4">
+        <v>2.05025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-494.8210184626972</v>
+      </c>
+      <c r="C5">
+        <v>0.06252040542621548</v>
+      </c>
+      <c r="D5">
+        <v>2.1894594010533446</v>
+      </c>
+      <c r="E5">
+        <v>1.01724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-493.88631651873425</v>
+      </c>
+      <c r="C6">
+        <v>0.0982633719410437</v>
+      </c>
+      <c r="D6">
+        <v>1.9287039026590576</v>
+      </c>
+      <c r="E6">
+        <v>0.22882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-493.878976955939</v>
+      </c>
+      <c r="C7">
+        <v>0.08417753671051817</v>
+      </c>
+      <c r="D7">
+        <v>1.6710517428676759</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -955,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -989,10 +1176,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.015153574501464843</v>
+        <v>0.0337751045670166</v>
       </c>
       <c r="E2">
-        <v>13.66216</v>
+        <v>95.63509</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,15 +1187,32 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1160.3422218637184</v>
+        <v>-498.2142396320465</v>
       </c>
       <c r="C3">
-        <v>1.9595397905801395e-14</v>
+        <v>0.03043272656743201</v>
       </c>
       <c r="D3">
-        <v>0.0629035889215088</v>
+        <v>0.19687224959741212</v>
       </c>
       <c r="E3">
+        <v>2.23017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-493.77701315914567</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>3.3224299262458494</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -1019,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1053,10 +1257,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.025511530756958008</v>
+        <v>0.03650230185864258</v>
       </c>
       <c r="E2">
-        <v>14.40722</v>
+        <v>100.85053</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,15 +1268,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1165.4039138542048</v>
+        <v>-500.3009550677683</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.06256094096371448</v>
       </c>
       <c r="D3">
-        <v>0.061158538768188477</v>
+        <v>0.41138233438500976</v>
       </c>
       <c r="E3">
+        <v>2.66197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-498.080537963834</v>
+      </c>
+      <c r="C4">
+        <v>0.09012169490258642</v>
+      </c>
+      <c r="D4">
+        <v>0.6659702652718505</v>
+      </c>
+      <c r="E4">
+        <v>1.64181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-494.66977709988043</v>
+      </c>
+      <c r="C5">
+        <v>0.0020041724231634195</v>
+      </c>
+      <c r="D5">
+        <v>1.595498962383911</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1083,7 +1321,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1117,10 +1355,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.015045594956054687</v>
+        <v>0.030057644264282226</v>
       </c>
       <c r="E2">
-        <v>14.25979</v>
+        <v>99.81853</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,15 +1366,100 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1182.6806093240584</v>
+        <v>-505.46324785387657</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.059335975364501956</v>
+        <v>8.759072705619628</v>
       </c>
       <c r="E3">
+        <v>2.2637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-504.8949420515873</v>
+      </c>
+      <c r="C4">
+        <v>0.038445112839697496</v>
+      </c>
+      <c r="D4">
+        <v>4.286179395468628</v>
+      </c>
+      <c r="E4">
+        <v>2.32689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-503.1271987910754</v>
+      </c>
+      <c r="C5">
+        <v>0.003983327041023593</v>
+      </c>
+      <c r="D5">
+        <v>1.3209509863302002</v>
+      </c>
+      <c r="E5">
+        <v>1.80259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-501.2090742434351</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>3.3246083985111086</v>
+      </c>
+      <c r="E6">
+        <v>0.83709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-501.0994848227483</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>3.8979372160251464</v>
+      </c>
+      <c r="E7">
+        <v>0.3594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-501.035321969408</v>
+      </c>
+      <c r="C8">
+        <v>0.0063244490822436834</v>
+      </c>
+      <c r="D8">
+        <v>1.799657866908203</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -1147,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1181,10 +1504,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.030612488443359374</v>
+        <v>0.0344067177331543</v>
       </c>
       <c r="E2">
-        <v>14.10151</v>
+        <v>98.71058</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,15 +1515,66 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1151.5913951159318</v>
+        <v>-521.22534655245</v>
       </c>
       <c r="C3">
-        <v>1.9744301356152664e-14</v>
+        <v>1.3878053899598116e-5</v>
       </c>
       <c r="D3">
-        <v>0.05059101933215332</v>
+        <v>0.15133188868908692</v>
       </c>
       <c r="E3">
+        <v>5.36315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-492.2511212679616</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>1.4093481394442138</v>
+      </c>
+      <c r="E4">
+        <v>1.90733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-489.9281388413944</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>2.1006329139522704</v>
+      </c>
+      <c r="E5">
+        <v>0.13979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-489.92059686850763</v>
+      </c>
+      <c r="C6">
+        <v>0.0998646538295204</v>
+      </c>
+      <c r="D6">
+        <v>4.1789652369610595</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1211,7 +1585,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1245,10 +1619,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.014296467897094727</v>
+        <v>0.03671173969702148</v>
       </c>
       <c r="E2">
-        <v>14.96968</v>
+        <v>104.78776</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,15 +1630,100 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1139.5270312436296</v>
+        <v>-490.55923221260696</v>
       </c>
       <c r="C3">
-        <v>1.995333758735556e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.04878204801611328</v>
+        <v>3.28272136065332</v>
       </c>
       <c r="E3">
+        <v>2.79096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-486.8548937772604</v>
+      </c>
+      <c r="C4">
+        <v>0.09515951669365517</v>
+      </c>
+      <c r="D4">
+        <v>2.54627385545105</v>
+      </c>
+      <c r="E4">
+        <v>1.95757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-485.67687610649233</v>
+      </c>
+      <c r="C5">
+        <v>0.08368870692367118</v>
+      </c>
+      <c r="D5">
+        <v>1.820093229180542</v>
+      </c>
+      <c r="E5">
+        <v>0.7327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-485.54651258361156</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>3.478669424605347</v>
+      </c>
+      <c r="E6">
+        <v>0.35563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-485.44147879984996</v>
+      </c>
+      <c r="C7">
+        <v>0.06953098832940999</v>
+      </c>
+      <c r="D7">
+        <v>6.30808136647876</v>
+      </c>
+      <c r="E7">
+        <v>0.21448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-485.414226853377</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>6.807088693469238</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -1275,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1309,10 +1768,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.017889056090454103</v>
+        <v>0.019420999197631836</v>
       </c>
       <c r="E2">
-        <v>13.92028</v>
+        <v>97.44194</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,15 +1779,83 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1140.4707892873744</v>
+        <v>-494.3448766993099</v>
       </c>
       <c r="C3">
-        <v>1.993682587743322e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.06260052042736816</v>
+        <v>2.7157713765528566</v>
       </c>
       <c r="E3">
+        <v>3.81686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-485.32787952595316</v>
+      </c>
+      <c r="C4">
+        <v>0.018133852855829215</v>
+      </c>
+      <c r="D4">
+        <v>0.8334269772215577</v>
+      </c>
+      <c r="E4">
+        <v>1.76643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-484.0481127076116</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>3.0061987162576904</v>
+      </c>
+      <c r="E5">
+        <v>1.33187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-483.47453789764666</v>
+      </c>
+      <c r="C6">
+        <v>0.09982219224335774</v>
+      </c>
+      <c r="D6">
+        <v>1.6844173717867432</v>
+      </c>
+      <c r="E6">
+        <v>1.91246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-482.083576119485</v>
+      </c>
+      <c r="C7">
+        <v>0.013622687354683397</v>
+      </c>
+      <c r="D7">
+        <v>1.5006218635322266</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -1339,7 +1866,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1373,10 +1900,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.015809525822753905</v>
+        <v>0.06515070788500976</v>
       </c>
       <c r="E2">
-        <v>14.21267</v>
+        <v>99.48872</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,15 +1911,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1170.8393993377722</v>
+        <v>-496.01367313037525</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0004659231436712165</v>
       </c>
       <c r="D3">
-        <v>0.05908722149084473</v>
+        <v>2.9778129264454347</v>
       </c>
       <c r="E3">
+        <v>2.38392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-494.26608592153195</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>3.8155632811136475</v>
+      </c>
+      <c r="E4">
+        <v>0.2961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-494.21506369912964</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>3.497434060074585</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
